--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -25,6 +25,18 @@
   </si>
   <si>
     <t>Heizung(8835275)</t>
+  </si>
+  <si>
+    <t>Heizung</t>
+  </si>
+  <si>
+    <t>Verbrauch seit letzter Messung</t>
+  </si>
+  <si>
+    <t>Tage</t>
+  </si>
+  <si>
+    <t>Verbr pro Tag</t>
   </si>
 </sst>
 </file>
@@ -75,6 +87,711 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32544231637155541"/>
+          <c:y val="2.6704820415339562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heizung(8835275)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>270653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>279862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="91493888"/>
+        <c:axId val="91495424"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="91493888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91495424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="91495424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91493888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sonstiges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>31874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="88446848"/>
+        <c:axId val="88448384"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="88446848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88448384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="88448384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88446848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Verbrauch pro Tag (kWh)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heizung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>1.436241610738255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.093023255813954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.229166666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.857142857142854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sonstiges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>3.2348993288590604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5116279069767442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6481481481481484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="90326144"/>
+        <c:axId val="90328064"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="90326144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90328064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="90328064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90326144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10" title="Verbrauch pro Tag"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,129 +1081,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43191</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>270653</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>31874</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43340</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>270867</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>32356</v>
       </c>
+      <c r="D4">
+        <f>B4-B3</f>
+        <v>214</v>
+      </c>
+      <c r="E4">
+        <f>C4-C3</f>
+        <v>482</v>
+      </c>
+      <c r="F4">
+        <f>A4-A3</f>
+        <v>149</v>
+      </c>
+      <c r="G4">
+        <f>D4/F4</f>
+        <v>1.436241610738255</v>
+      </c>
+      <c r="H4">
+        <f>E4/F4</f>
+        <v>3.2348993288590604</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43383</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>271430</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>32507</v>
       </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D11" si="0">B5-B4</f>
+        <v>563</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="1">C5-C4</f>
+        <v>151</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="2">A5-A4</f>
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G11" si="3">D5/F5</f>
+        <v>13.093023255813954</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H11" si="4">E5/F5</f>
+        <v>3.5116279069767442</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43403</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>272198</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>32565</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>38.4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>2.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>43457</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>274790</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>32708</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2592</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>2.6481481481481484</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43469</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>275406</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>32732</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>51.333333333333336</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43494</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>276834</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>32796</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>57.12</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>2.56</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43542</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>279485</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>32948</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2651</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>55.229166666666664</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666665</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43549</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>279862</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>32961</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>53.857142857142854</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>1.8571428571428572</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -139,10 +139,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$11</c:f>
+              <c:f>Tabelle1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -169,16 +169,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$11</c:f>
+              <c:f>Tabelle1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>270653</c:v>
                 </c:pt>
@@ -205,6 +208,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>279862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -221,28 +227,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91493888"/>
-        <c:axId val="91495424"/>
+        <c:axId val="86412288"/>
+        <c:axId val="86418176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91493888"/>
+        <c:axId val="86412288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-407]mmm/\ yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91495424"/>
+        <c:crossAx val="86418176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91495424"/>
+        <c:axId val="86418176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91493888"/>
+        <c:crossAx val="86412288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -318,10 +324,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$11</c:f>
+              <c:f>Tabelle1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -348,16 +354,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$11</c:f>
+              <c:f>Tabelle1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>31874</c:v>
                 </c:pt>
@@ -384,6 +393,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,28 +412,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88446848"/>
-        <c:axId val="88448384"/>
+        <c:axId val="86971136"/>
+        <c:axId val="86972672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88446848"/>
+        <c:axId val="86971136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-407]mmm/\ yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88448384"/>
+        <c:crossAx val="86972672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88448384"/>
+        <c:axId val="86972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88446848"/>
+        <c:crossAx val="86971136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -512,10 +524,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$11</c:f>
+              <c:f>Tabelle1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -542,16 +554,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$11</c:f>
+              <c:f>Tabelle1!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
@@ -575,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>53.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.611111111111114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,12 +616,51 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$11</c:f>
+              <c:f>Tabelle1!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
@@ -627,6 +684,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6111111111111112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,28 +703,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90326144"/>
-        <c:axId val="90328064"/>
+        <c:axId val="87014400"/>
+        <c:axId val="87020288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90326144"/>
+        <c:axId val="87014400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-407]mmm/\ yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90328064"/>
+        <c:crossAx val="87020288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90328064"/>
+        <c:axId val="87020288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90326144"/>
+        <c:crossAx val="87014400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,16 +761,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -731,16 +791,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -764,15 +824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1081,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,23 +1240,23 @@
         <v>32507</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D11" si="0">B5-B4</f>
+        <f t="shared" ref="D5:D12" si="0">B5-B4</f>
         <v>563</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E11" si="1">C5-C4</f>
+        <f t="shared" ref="E5:E12" si="1">C5-C4</f>
         <v>151</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F11" si="2">A5-A4</f>
+        <f t="shared" ref="F5:F12" si="2">A5-A4</f>
         <v>43</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G11" si="3">D5/F5</f>
+        <f t="shared" ref="G5:G12" si="3">D5/F5</f>
         <v>13.093023255813954</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H11" si="4">E5/F5</f>
+        <f t="shared" ref="H5:H12" si="4">E5/F5</f>
         <v>3.5116279069767442</v>
       </c>
     </row>
@@ -1384,6 +1444,37 @@
       <c r="H11">
         <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B12">
+        <v>280611</v>
+      </c>
+      <c r="C12">
+        <v>33008</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>749</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>41.611111111111114</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>2.6111111111111112</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -43,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,9 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -139,10 +144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$12</c:f>
+              <c:f>Tabelle1!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -172,16 +177,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$12</c:f>
+              <c:f>Tabelle1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>270653</c:v>
                 </c:pt>
@@ -211,6 +219,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>280611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -227,11 +238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86412288"/>
-        <c:axId val="86418176"/>
+        <c:axId val="87395328"/>
+        <c:axId val="87401216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86412288"/>
+        <c:axId val="87395328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,14 +252,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86418176"/>
+        <c:crossAx val="87401216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86418176"/>
+        <c:axId val="87401216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -259,7 +270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86412288"/>
+        <c:crossAx val="87395328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,10 +335,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$12</c:f>
+              <c:f>Tabelle1!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -357,16 +368,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$12</c:f>
+              <c:f>Tabelle1!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>31874</c:v>
                 </c:pt>
@@ -396,6 +410,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>33008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,11 +429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86971136"/>
-        <c:axId val="86972672"/>
+        <c:axId val="87499520"/>
+        <c:axId val="87501056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86971136"/>
+        <c:axId val="87499520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,14 +443,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86972672"/>
+        <c:crossAx val="87501056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86972672"/>
+        <c:axId val="87501056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86971136"/>
+        <c:crossAx val="87499520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -524,10 +541,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$12</c:f>
+              <c:f>Tabelle1!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -557,16 +574,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$12</c:f>
+              <c:f>Tabelle1!$G$3:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="1">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
@@ -593,6 +613,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>41.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.916666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,10 +641,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$12</c:f>
+              <c:f>Tabelle1!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -651,16 +674,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$12</c:f>
+              <c:f>Tabelle1!$H$3:$H$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="1">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
@@ -687,6 +713,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.6111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4583333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,11 +732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87014400"/>
-        <c:axId val="87020288"/>
+        <c:axId val="87538688"/>
+        <c:axId val="87544576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87014400"/>
+        <c:axId val="87538688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,25 +746,25 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87020288"/>
+        <c:crossAx val="87544576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87020288"/>
+        <c:axId val="87544576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87014400"/>
+        <c:crossAx val="87538688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -792,15 +821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -826,13 +855,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1141,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1226,8 @@
       <c r="C3">
         <v>31874</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1220,11 +1251,11 @@
         <f>A4-A3</f>
         <v>149</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f>D4/F4</f>
         <v>1.436241610738255</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>E4/F4</f>
         <v>3.2348993288590604</v>
       </c>
@@ -1240,7 +1271,7 @@
         <v>32507</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D12" si="0">B5-B4</f>
+        <f t="shared" ref="D5:D13" si="0">B5-B4</f>
         <v>563</v>
       </c>
       <c r="E5">
@@ -1251,11 +1282,11 @@
         <f t="shared" ref="F5:F12" si="2">A5-A4</f>
         <v>43</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G12" si="3">D5/F5</f>
         <v>13.093023255813954</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f t="shared" ref="H5:H12" si="4">E5/F5</f>
         <v>3.5116279069767442</v>
       </c>
@@ -1282,11 +1313,11 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f t="shared" si="3"/>
         <v>38.4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
@@ -1313,11 +1344,11 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f t="shared" si="4"/>
         <v>2.6481481481481484</v>
       </c>
@@ -1344,11 +1375,11 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>51.333333333333336</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -1375,11 +1406,11 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>57.12</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f t="shared" si="4"/>
         <v>2.56</v>
       </c>
@@ -1406,11 +1437,11 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>55.229166666666664</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f t="shared" si="4"/>
         <v>3.1666666666666665</v>
       </c>
@@ -1437,11 +1468,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>53.857142857142854</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
@@ -1468,18 +1499,50 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <f t="shared" si="3"/>
         <v>41.611111111111114</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <f t="shared" si="4"/>
         <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B13">
+        <v>281233</v>
+      </c>
+      <c r="C13">
+        <v>33091</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>622</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="5">C13-C12</f>
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="6">A13-A12</f>
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ref="G13" si="7">D13/F13</f>
+        <v>25.916666666666668</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13" si="8">E13/F13</f>
+        <v>3.4583333333333335</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -144,10 +144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$13</c:f>
+              <c:f>Tabelle1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -180,16 +180,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$13</c:f>
+              <c:f>Tabelle1!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>270653</c:v>
                 </c:pt>
@@ -222,6 +225,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>281233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>282127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -238,11 +244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87395328"/>
-        <c:axId val="87401216"/>
+        <c:axId val="89361408"/>
+        <c:axId val="89367296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87395328"/>
+        <c:axId val="89361408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,14 +258,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87401216"/>
+        <c:crossAx val="89367296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87401216"/>
+        <c:axId val="89367296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,7 +276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87395328"/>
+        <c:crossAx val="89361408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -335,10 +341,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$13</c:f>
+              <c:f>Tabelle1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -371,16 +377,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$13</c:f>
+              <c:f>Tabelle1!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>31874</c:v>
                 </c:pt>
@@ -413,6 +422,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>33091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,11 +441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87499520"/>
-        <c:axId val="87501056"/>
+        <c:axId val="95499008"/>
+        <c:axId val="95500544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87499520"/>
+        <c:axId val="95499008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,14 +455,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87501056"/>
+        <c:crossAx val="95500544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87501056"/>
+        <c:axId val="95500544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87499520"/>
+        <c:crossAx val="95499008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -541,10 +553,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$13</c:f>
+              <c:f>Tabelle1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -577,16 +589,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$13</c:f>
+              <c:f>Tabelle1!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
@@ -616,6 +631,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25.916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.771428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,10 +659,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$13</c:f>
+              <c:f>Tabelle1!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -677,16 +695,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$13</c:f>
+              <c:f>Tabelle1!$H$3:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
@@ -716,6 +737,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.4583333333333335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7428571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,11 +756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87538688"/>
-        <c:axId val="87544576"/>
+        <c:axId val="95538176"/>
+        <c:axId val="95539968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87538688"/>
+        <c:axId val="95538176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,14 +770,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87544576"/>
+        <c:crossAx val="95539968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87544576"/>
+        <c:axId val="95539968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87538688"/>
+        <c:crossAx val="95538176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -791,15 +815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -821,15 +845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1170,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1561,37 @@
       <c r="H13" s="3">
         <f t="shared" ref="H13" si="8">E13/F13</f>
         <v>3.4583333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43661</v>
+      </c>
+      <c r="B14">
+        <v>282127</v>
+      </c>
+      <c r="C14">
+        <v>33353</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="9">B14-B13</f>
+        <v>894</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="10">C14-C13</f>
+        <v>262</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="11">A14-A13</f>
+        <v>70</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14" si="12">D14/F14</f>
+        <v>12.771428571428572</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ref="H14" si="13">E14/F14</f>
+        <v>3.7428571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -144,10 +144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$14</c:f>
+              <c:f>Tabelle1!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -183,16 +183,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$14</c:f>
+              <c:f>Tabelle1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>270653</c:v>
                 </c:pt>
@@ -228,6 +231,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>282127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>282763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,11 +250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89361408"/>
-        <c:axId val="89367296"/>
+        <c:axId val="90326912"/>
+        <c:axId val="90328448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89361408"/>
+        <c:axId val="90326912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,14 +264,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89367296"/>
+        <c:crossAx val="90328448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89367296"/>
+        <c:axId val="90328448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,7 +282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89361408"/>
+        <c:crossAx val="90326912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -341,10 +347,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$14</c:f>
+              <c:f>Tabelle1!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -380,16 +386,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$14</c:f>
+              <c:f>Tabelle1!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>31874</c:v>
                 </c:pt>
@@ -425,6 +434,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>33353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,11 +453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95499008"/>
-        <c:axId val="95500544"/>
+        <c:axId val="43609472"/>
+        <c:axId val="43615360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95499008"/>
+        <c:axId val="43609472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,14 +467,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95500544"/>
+        <c:crossAx val="43615360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95500544"/>
+        <c:axId val="43615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95499008"/>
+        <c:crossAx val="43609472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -553,10 +565,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$14</c:f>
+              <c:f>Tabelle1!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -592,16 +604,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$14</c:f>
+              <c:f>Tabelle1!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
@@ -634,6 +649,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.771428571428572</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4925373134328357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$14</c:f>
+              <c:f>Tabelle1!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -698,16 +716,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$14</c:f>
+              <c:f>Tabelle1!$H$3:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
@@ -740,6 +761,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.7428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9850746268656718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95538176"/>
-        <c:axId val="95539968"/>
+        <c:axId val="43640704"/>
+        <c:axId val="43642240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95538176"/>
+        <c:axId val="43640704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,14 +794,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95539968"/>
+        <c:crossAx val="43642240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95539968"/>
+        <c:axId val="43642240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95538176"/>
+        <c:crossAx val="43640704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1616,37 @@
       <c r="H14" s="3">
         <f t="shared" ref="H14" si="13">E14/F14</f>
         <v>3.7428571428571429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B15">
+        <v>282763</v>
+      </c>
+      <c r="C15">
+        <v>33553</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="14">B15-B14</f>
+        <v>636</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="15">C15-C14</f>
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="16">A15-A14</f>
+        <v>67</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15" si="17">D15/F15</f>
+        <v>9.4925373134328357</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15" si="18">E15/F15</f>
+        <v>2.9850746268656718</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -144,10 +144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$15</c:f>
+              <c:f>Tabelle1!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -186,16 +186,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$15</c:f>
+              <c:f>Tabelle1!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>270653</c:v>
                 </c:pt>
@@ -234,6 +237,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>282763</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>284253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -250,11 +256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90326912"/>
-        <c:axId val="90328448"/>
+        <c:axId val="179280896"/>
+        <c:axId val="179286784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90326912"/>
+        <c:axId val="179280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,14 +270,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90328448"/>
+        <c:crossAx val="179286784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90328448"/>
+        <c:axId val="179286784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -282,7 +288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90326912"/>
+        <c:crossAx val="179280896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -347,10 +353,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$15</c:f>
+              <c:f>Tabelle1!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -389,16 +395,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$15</c:f>
+              <c:f>Tabelle1!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>31874</c:v>
                 </c:pt>
@@ -437,6 +446,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>33553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,11 +465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43609472"/>
-        <c:axId val="43615360"/>
+        <c:axId val="179647232"/>
+        <c:axId val="179648768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="43609472"/>
+        <c:axId val="179647232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,14 +479,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43615360"/>
+        <c:crossAx val="179648768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43615360"/>
+        <c:axId val="179648768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43609472"/>
+        <c:crossAx val="179647232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,10 +577,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$15</c:f>
+              <c:f>Tabelle1!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -607,16 +619,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$15</c:f>
+              <c:f>Tabelle1!$G$3:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
@@ -652,6 +667,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9.4925373134328357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.702127659574469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,10 +695,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$15</c:f>
+              <c:f>Tabelle1!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -719,16 +737,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$15</c:f>
+              <c:f>Tabelle1!$H$3:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
@@ -764,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.9850746268656718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5744680851063828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,11 +804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43640704"/>
-        <c:axId val="43642240"/>
+        <c:axId val="179682304"/>
+        <c:axId val="179688192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="43640704"/>
+        <c:axId val="179682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,14 +818,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43642240"/>
+        <c:crossAx val="179688192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43642240"/>
+        <c:axId val="179688192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43640704"/>
+        <c:crossAx val="179682304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -839,15 +863,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -869,15 +893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1218,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,6 +1671,37 @@
       <c r="H15" s="3">
         <f t="shared" ref="H15" si="18">E15/F15</f>
         <v>2.9850746268656718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B16">
+        <v>284253</v>
+      </c>
+      <c r="C16">
+        <v>33721</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="19">B16-B15</f>
+        <v>1490</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="20">C16-C15</f>
+        <v>168</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="21">A16-A15</f>
+        <v>47</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ref="G16" si="22">D16/F16</f>
+        <v>31.702127659574469</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" ref="H16" si="23">E16/F16</f>
+        <v>3.5744680851063828</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -144,10 +144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$16</c:f>
+              <c:f>Tabelle1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -189,16 +189,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$16</c:f>
+              <c:f>Tabelle1!$B$3:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>270653</c:v>
                 </c:pt>
@@ -240,6 +243,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>284253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,11 +262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179280896"/>
-        <c:axId val="179286784"/>
+        <c:axId val="180526080"/>
+        <c:axId val="180531968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="179280896"/>
+        <c:axId val="180526080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,14 +276,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179286784"/>
+        <c:crossAx val="180531968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179286784"/>
+        <c:axId val="180531968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,7 +294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179280896"/>
+        <c:crossAx val="180526080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -353,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$16</c:f>
+              <c:f>Tabelle1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -398,16 +404,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$16</c:f>
+              <c:f>Tabelle1!$C$3:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>31874</c:v>
                 </c:pt>
@@ -449,6 +458,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>33721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,11 +477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179647232"/>
-        <c:axId val="179648768"/>
+        <c:axId val="181682944"/>
+        <c:axId val="181684480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="179647232"/>
+        <c:axId val="181682944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,14 +491,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179648768"/>
+        <c:crossAx val="181684480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179648768"/>
+        <c:axId val="181684480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179647232"/>
+        <c:crossAx val="181682944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,10 +589,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$16</c:f>
+              <c:f>Tabelle1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -622,16 +634,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$16</c:f>
+              <c:f>Tabelle1!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="1">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
@@ -670,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>31.702127659574469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.737373737373737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,10 +713,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$16</c:f>
+              <c:f>Tabelle1!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
                 </c:pt>
@@ -740,16 +758,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$16</c:f>
+              <c:f>Tabelle1!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="1">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
@@ -788,6 +809,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3.5744680851063828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6969696969696968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,11 +828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179682304"/>
-        <c:axId val="179688192"/>
+        <c:axId val="181713920"/>
+        <c:axId val="181719808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="179682304"/>
+        <c:axId val="181713920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,14 +842,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179688192"/>
+        <c:crossAx val="181719808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179688192"/>
+        <c:axId val="181719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179682304"/>
+        <c:crossAx val="181713920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -863,15 +887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -893,14 +917,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1242,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,6 +1726,37 @@
       <c r="H16" s="3">
         <f t="shared" ref="H16" si="23">E16/F16</f>
         <v>3.5744680851063828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B17">
+        <v>288880</v>
+      </c>
+      <c r="C17">
+        <v>33988</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="24">B17-B16</f>
+        <v>4627</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="25">C17-C16</f>
+        <v>267</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="26">A17-A16</f>
+        <v>99</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ref="G17" si="27">D17/F17</f>
+        <v>46.737373737373737</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17" si="28">E17/F17</f>
+        <v>2.6969696969696968</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Verbr pro Tag</t>
+  </si>
+  <si>
+    <t>Verbr pro Jahr</t>
   </si>
 </sst>
 </file>
@@ -144,108 +147,156 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$17</c:f>
+              <c:f>Tabelle1!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43191</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>43469</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>43494</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>43542</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>43549</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>43567</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>43591</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>43661</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$17</c:f>
+              <c:f>Tabelle1!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255987</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>270653</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>270867</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>271430</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>272198</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>274790</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>275406</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>276834</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>279485</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>279862</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>280611</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>281233</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>282127</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>282763</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>284253</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>288880</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>294266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,11 +313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180526080"/>
-        <c:axId val="180531968"/>
+        <c:axId val="84057088"/>
+        <c:axId val="84062976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180526080"/>
+        <c:axId val="84057088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,14 +327,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180531968"/>
+        <c:crossAx val="84062976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180531968"/>
+        <c:axId val="84062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,7 +345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180526080"/>
+        <c:crossAx val="84057088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -359,108 +410,156 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$17</c:f>
+              <c:f>Tabelle1!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43191</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>43469</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>43494</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>43542</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>43549</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>43567</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>43591</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>43661</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$17</c:f>
+              <c:f>Tabelle1!$C$3:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>16577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>31874</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>32356</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>32507</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>32565</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>32708</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>32732</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>32796</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>32948</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>32961</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>33008</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>33091</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>33353</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>33553</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>33721</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>33988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,11 +576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181682944"/>
-        <c:axId val="181684480"/>
+        <c:axId val="85934848"/>
+        <c:axId val="85936384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181682944"/>
+        <c:axId val="85934848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,14 +590,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181684480"/>
+        <c:crossAx val="85936384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181684480"/>
+        <c:axId val="85936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181682944"/>
+        <c:crossAx val="85934848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -589,105 +688,153 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$17</c:f>
+              <c:f>Tabelle1!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43191</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>43469</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>43494</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>43542</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>43549</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>43567</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>43591</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>43661</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$17</c:f>
+              <c:f>Tabelle1!$G$3:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="1">
+                  <c:v>27.55072463768116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.638190954773869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.19178082191781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.035616438356165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.671232876712327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.825136612021858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.589622641509436</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.436241610738255</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>13.093023255813954</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>38.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>51.333333333333336</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>57.12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>55.229166666666664</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>53.857142857142854</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>41.611111111111114</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>25.916666666666668</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>12.771428571428572</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>9.4925373134328357</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>31.702127659574469</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>46.737373737373737</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.756164383561643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,105 +860,153 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$17</c:f>
+              <c:f>Tabelle1!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43191</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>43383</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>43403</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>43457</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>43469</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>43494</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>43542</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>43549</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>43567</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>43591</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>43661</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$17</c:f>
+              <c:f>Tabelle1!$H$3:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="1">
+                  <c:v>3.1482720178372352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3291457286432165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3589041095890408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2410958904109588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1780821917808222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8032786885245899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4103773584905657</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.2348993288590604</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>3.5116279069767442</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2.6481481481481484</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2.56</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>3.1666666666666665</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1.8571428571428572</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2.6111111111111112</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>3.4583333333333335</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>3.7428571428571429</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2.9850746268656718</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3.5744680851063828</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>2.6969696969696968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7205479452054795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,11 +1023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181713920"/>
-        <c:axId val="181719808"/>
+        <c:axId val="85965824"/>
+        <c:axId val="85971712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181713920"/>
+        <c:axId val="85965824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,14 +1037,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181719808"/>
+        <c:crossAx val="85971712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181719808"/>
+        <c:axId val="85971712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181713920"/>
+        <c:crossAx val="85965824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -886,16 +1081,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -916,16 +1111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -949,14 +1144,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1266,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,15 +1473,18 @@
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1311,453 +1509,780 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43191</v>
+        <v>39114</v>
       </c>
       <c r="B3">
-        <v>270653</v>
+        <v>152000</v>
       </c>
       <c r="C3">
-        <v>31874</v>
+        <v>16577</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43340</v>
+        <v>40908</v>
       </c>
       <c r="B4">
-        <v>270867</v>
+        <v>201426</v>
       </c>
       <c r="C4">
-        <v>32356</v>
+        <v>22225</v>
       </c>
       <c r="D4">
-        <f>B4-B3</f>
-        <v>214</v>
+        <f t="shared" ref="D4" si="0">B4-B3</f>
+        <v>49426</v>
       </c>
       <c r="E4">
-        <f>C4-C3</f>
-        <v>482</v>
+        <f t="shared" ref="E4" si="1">C4-C3</f>
+        <v>5648</v>
       </c>
       <c r="F4">
-        <f>A4-A3</f>
-        <v>149</v>
+        <f t="shared" ref="F4" si="2">A4-A3</f>
+        <v>1794</v>
       </c>
       <c r="G4" s="3">
         <f>D4/F4</f>
+        <v>27.55072463768116</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4" si="3">E4/F4</f>
+        <v>3.1482720178372352</v>
+      </c>
+      <c r="I4" s="3">
+        <f>D4/F4*365</f>
+        <v>10056.014492753624</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B5">
+        <v>214814</v>
+      </c>
+      <c r="C5">
+        <v>23948</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="4">B5-B4</f>
+        <v>13388</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="5">C5-C4</f>
+        <v>1723</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5" si="6">A5-A4</f>
+        <v>398</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5" si="7">D5/F5</f>
+        <v>33.638190954773869</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5" si="8">E5/F5</f>
+        <v>4.3291457286432165</v>
+      </c>
+      <c r="I5" s="3">
+        <f>D5/F5*365</f>
+        <v>12277.939698492462</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B6">
+        <v>226199</v>
+      </c>
+      <c r="C6">
+        <v>25539</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="9">B6-B5</f>
+        <v>11385</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6" si="10">C6-C5</f>
+        <v>1591</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="11">A6-A5</f>
+        <v>365</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6" si="12">D6/F6</f>
+        <v>31.19178082191781</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6" si="13">E6/F6</f>
+        <v>4.3589041095890408</v>
+      </c>
+      <c r="I6" s="3">
+        <f>D6/F6*365</f>
+        <v>11385</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B7">
+        <v>235702</v>
+      </c>
+      <c r="C7">
+        <v>27087</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="14">B7-B6</f>
+        <v>9503</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="15">C7-C6</f>
+        <v>1548</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="16">A7-A6</f>
+        <v>365</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7" si="17">D7/F7</f>
+        <v>26.035616438356165</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7" si="18">E7/F7</f>
+        <v>4.2410958904109588</v>
+      </c>
+      <c r="I7" s="3">
+        <f>D7/F7*365</f>
+        <v>9503</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B8">
+        <v>245437</v>
+      </c>
+      <c r="C8">
+        <v>28612</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="19">B8-B7</f>
+        <v>9735</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="20">C8-C7</f>
+        <v>1525</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="21">A8-A7</f>
+        <v>365</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8" si="22">D8/F8</f>
+        <v>26.671232876712327</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8" si="23">E8/F8</f>
+        <v>4.1780821917808222</v>
+      </c>
+      <c r="I8" s="3">
+        <f>D8/F8*365</f>
+        <v>9735</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B9">
+        <v>255987</v>
+      </c>
+      <c r="C9">
+        <v>30004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="24">B9-B8</f>
+        <v>10550</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="25">C9-C8</f>
+        <v>1392</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="26">A9-A8</f>
+        <v>366</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9" si="27">D9/F9</f>
+        <v>28.825136612021858</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9" si="28">E9/F9</f>
+        <v>3.8032786885245899</v>
+      </c>
+      <c r="I9" s="3">
+        <f>D9/F9*365</f>
+        <v>10521.174863387978</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B10">
+        <v>270653</v>
+      </c>
+      <c r="C10">
+        <v>31874</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="29">B10-B9</f>
+        <v>14666</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10" si="30">C10-C9</f>
+        <v>1870</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="31">A10-A9</f>
+        <v>424</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10" si="32">D10/F10</f>
+        <v>34.589622641509436</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10" si="33">E10/F10</f>
+        <v>4.4103773584905657</v>
+      </c>
+      <c r="I10" s="3">
+        <f>D10/F10*365</f>
+        <v>12625.212264150945</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43340</v>
+      </c>
+      <c r="B11">
+        <v>270867</v>
+      </c>
+      <c r="C11">
+        <v>32356</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="34">B11-B10</f>
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="35">C11-C10</f>
+        <v>482</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="36">A11-A10</f>
+        <v>149</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11" si="37">D11/F11</f>
         <v>1.436241610738255</v>
       </c>
-      <c r="H4" s="3">
-        <f>E4/F4</f>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11" si="38">E11/F11</f>
         <v>3.2348993288590604</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43383</v>
       </c>
-      <c r="B5">
+      <c r="B12">
         <v>271430</v>
       </c>
-      <c r="C5">
+      <c r="C12">
         <v>32507</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D13" si="0">B5-B4</f>
+      <c r="D12">
+        <f t="shared" ref="D12:D20" si="39">B12-B11</f>
         <v>563</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E12" si="1">C5-C4</f>
+      <c r="E12">
+        <f t="shared" ref="E12:E19" si="40">C12-C11</f>
         <v>151</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F12" si="2">A5-A4</f>
+      <c r="F12">
+        <f t="shared" ref="F12:F19" si="41">A12-A11</f>
         <v>43</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G12" si="3">D5/F5</f>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G19" si="42">D12/F12</f>
         <v>13.093023255813954</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" ref="H5:H12" si="4">E5/F5</f>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12:H19" si="43">E12/F12</f>
         <v>3.5116279069767442</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43403</v>
       </c>
-      <c r="B6">
+      <c r="B13">
         <v>272198</v>
       </c>
-      <c r="C6">
+      <c r="C13">
         <v>32565</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f t="shared" si="39"/>
         <v>768</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
+      <c r="E13">
+        <f t="shared" si="40"/>
         <v>58</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
+      <c r="F13">
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="3"/>
+      <c r="G13" s="3">
+        <f t="shared" si="42"/>
         <v>38.4</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="4"/>
+      <c r="H13" s="3">
+        <f t="shared" si="43"/>
         <v>2.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>43457</v>
       </c>
-      <c r="B7">
+      <c r="B14">
         <v>274790</v>
       </c>
-      <c r="C7">
+      <c r="C14">
         <v>32708</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="D14">
+        <f t="shared" si="39"/>
         <v>2592</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="E14">
+        <f t="shared" si="40"/>
         <v>143</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
+      <c r="F14">
+        <f t="shared" si="41"/>
         <v>54</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="3"/>
+      <c r="G14" s="3">
+        <f t="shared" si="42"/>
         <v>48</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" si="4"/>
+      <c r="H14" s="3">
+        <f t="shared" si="43"/>
         <v>2.6481481481481484</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>43469</v>
       </c>
-      <c r="B8">
+      <c r="B15">
         <v>275406</v>
       </c>
-      <c r="C8">
+      <c r="C15">
         <v>32732</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="D15">
+        <f t="shared" si="39"/>
         <v>616</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="E15">
+        <f t="shared" si="40"/>
         <v>24</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
+      <c r="F15">
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="3"/>
+      <c r="G15" s="3">
+        <f t="shared" si="42"/>
         <v>51.333333333333336</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="4"/>
+      <c r="H15" s="3">
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>43494</v>
       </c>
-      <c r="B9">
+      <c r="B16">
         <v>276834</v>
       </c>
-      <c r="C9">
+      <c r="C16">
         <v>32796</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="D16">
+        <f t="shared" si="39"/>
         <v>1428</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="E16">
+        <f t="shared" si="40"/>
         <v>64</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
+      <c r="F16">
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="42"/>
         <v>57.12</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="4"/>
+      <c r="H16" s="3">
+        <f t="shared" si="43"/>
         <v>2.56</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I16" s="3">
+        <f>(B16-B10)/303*365</f>
+        <v>7445.7590759075911</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>43542</v>
       </c>
-      <c r="B10">
+      <c r="B17">
         <v>279485</v>
       </c>
-      <c r="C10">
+      <c r="C17">
         <v>32948</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="D17">
+        <f t="shared" si="39"/>
         <v>2651</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="E17">
+        <f t="shared" si="40"/>
         <v>152</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
+      <c r="F17">
+        <f t="shared" si="41"/>
         <v>48</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="3"/>
+      <c r="G17" s="3">
+        <f t="shared" si="42"/>
         <v>55.229166666666664</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
+      <c r="H17" s="3">
+        <f t="shared" si="43"/>
         <v>3.1666666666666665</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>43549</v>
       </c>
-      <c r="B11">
+      <c r="B18">
         <v>279862</v>
       </c>
-      <c r="C11">
+      <c r="C18">
         <v>32961</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D18">
+        <f t="shared" si="39"/>
         <v>377</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="E18">
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
+      <c r="F18">
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="3"/>
+      <c r="G18" s="3">
+        <f t="shared" si="42"/>
         <v>53.857142857142854</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" si="4"/>
+      <c r="H18" s="3">
+        <f t="shared" si="43"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>43567</v>
       </c>
-      <c r="B12">
+      <c r="B19">
         <v>280611</v>
       </c>
-      <c r="C12">
+      <c r="C19">
         <v>33008</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f t="shared" si="39"/>
         <v>749</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
+      <c r="E19">
+        <f t="shared" si="40"/>
         <v>47</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
+      <c r="F19">
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="3"/>
+      <c r="G19" s="3">
+        <f t="shared" si="42"/>
         <v>41.611111111111114</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" si="4"/>
+      <c r="H19" s="3">
+        <f t="shared" si="43"/>
         <v>2.6111111111111112</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43591</v>
       </c>
-      <c r="B13">
+      <c r="B20">
         <v>281233</v>
       </c>
-      <c r="C13">
+      <c r="C20">
         <v>33091</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="D20">
+        <f t="shared" si="39"/>
         <v>622</v>
       </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="5">C13-C12</f>
+      <c r="E20">
+        <f t="shared" ref="E20" si="44">C20-C19</f>
         <v>83</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13" si="6">A13-A12</f>
+      <c r="F20">
+        <f t="shared" ref="F20" si="45">A20-A19</f>
         <v>24</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" ref="G13" si="7">D13/F13</f>
+      <c r="G20" s="3">
+        <f t="shared" ref="G20" si="46">D20/F20</f>
         <v>25.916666666666668</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" ref="H13" si="8">E13/F13</f>
+      <c r="H20" s="3">
+        <f t="shared" ref="H20" si="47">E20/F20</f>
         <v>3.4583333333333335</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>43661</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <v>282127</v>
       </c>
-      <c r="C14">
+      <c r="C21">
         <v>33353</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14" si="9">B14-B13</f>
+      <c r="D21">
+        <f t="shared" ref="D21" si="48">B21-B20</f>
         <v>894</v>
       </c>
-      <c r="E14">
-        <f t="shared" ref="E14" si="10">C14-C13</f>
+      <c r="E21">
+        <f t="shared" ref="E21" si="49">C21-C20</f>
         <v>262</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14" si="11">A14-A13</f>
+      <c r="F21">
+        <f t="shared" ref="F21" si="50">A21-A20</f>
         <v>70</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" ref="G14" si="12">D14/F14</f>
+      <c r="G21" s="3">
+        <f t="shared" ref="G21" si="51">D21/F21</f>
         <v>12.771428571428572</v>
       </c>
-      <c r="H14" s="3">
-        <f t="shared" ref="H14" si="13">E14/F14</f>
+      <c r="H21" s="3">
+        <f t="shared" ref="H21" si="52">E21/F21</f>
         <v>3.7428571428571429</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43728</v>
       </c>
-      <c r="B15">
+      <c r="B22">
         <v>282763</v>
       </c>
-      <c r="C15">
+      <c r="C22">
         <v>33553</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15" si="14">B15-B14</f>
+      <c r="D22">
+        <f t="shared" ref="D22" si="53">B22-B21</f>
         <v>636</v>
       </c>
-      <c r="E15">
-        <f t="shared" ref="E15" si="15">C15-C14</f>
+      <c r="E22">
+        <f t="shared" ref="E22" si="54">C22-C21</f>
         <v>200</v>
       </c>
-      <c r="F15">
-        <f t="shared" ref="F15" si="16">A15-A14</f>
+      <c r="F22">
+        <f t="shared" ref="F22" si="55">A22-A21</f>
         <v>67</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" ref="G15" si="17">D15/F15</f>
+      <c r="G22" s="3">
+        <f t="shared" ref="G22" si="56">D22/F22</f>
         <v>9.4925373134328357</v>
       </c>
-      <c r="H15" s="3">
-        <f t="shared" ref="H15" si="18">E15/F15</f>
+      <c r="H22" s="3">
+        <f t="shared" ref="H22" si="57">E22/F22</f>
         <v>2.9850746268656718</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43775</v>
       </c>
-      <c r="B16">
+      <c r="B23">
         <v>284253</v>
       </c>
-      <c r="C16">
+      <c r="C23">
         <v>33721</v>
       </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="19">B16-B15</f>
+      <c r="D23">
+        <f t="shared" ref="D23" si="58">B23-B22</f>
         <v>1490</v>
       </c>
-      <c r="E16">
-        <f t="shared" ref="E16" si="20">C16-C15</f>
+      <c r="E23">
+        <f t="shared" ref="E23" si="59">C23-C22</f>
         <v>168</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16" si="21">A16-A15</f>
+      <c r="F23">
+        <f t="shared" ref="F23" si="60">A23-A22</f>
         <v>47</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" ref="G16" si="22">D16/F16</f>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23" si="61">D23/F23</f>
         <v>31.702127659574469</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" ref="H16" si="23">E16/F16</f>
+      <c r="H23" s="3">
+        <f t="shared" ref="H23" si="62">E23/F23</f>
         <v>3.5744680851063828</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43874</v>
       </c>
-      <c r="B17">
+      <c r="B24">
         <v>288880</v>
       </c>
-      <c r="C17">
+      <c r="C24">
         <v>33988</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17" si="24">B17-B16</f>
+      <c r="D24">
+        <f t="shared" ref="D24" si="63">B24-B23</f>
         <v>4627</v>
       </c>
-      <c r="E17">
-        <f t="shared" ref="E17" si="25">C17-C16</f>
+      <c r="E24">
+        <f t="shared" ref="E24" si="64">C24-C23</f>
         <v>267</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17" si="26">A17-A16</f>
+      <c r="F24">
+        <f t="shared" ref="F24" si="65">A24-A23</f>
         <v>99</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" ref="G17" si="27">D17/F17</f>
+      <c r="G24" s="3">
+        <f t="shared" ref="G24" si="66">D24/F24</f>
         <v>46.737373737373737</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" ref="H17" si="28">E17/F17</f>
+      <c r="H24" s="3">
+        <f t="shared" ref="H24" si="67">E24/F24</f>
         <v>2.6969696969696968</v>
       </c>
+      <c r="I24" s="3">
+        <f>B24-B16</f>
+        <v>12046</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B25">
+        <v>294266</v>
+      </c>
+      <c r="C25">
+        <v>34616</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="68">B25-B24</f>
+        <v>5386</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="69">C25-C24</f>
+        <v>628</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="70">A25-A24</f>
+        <v>365</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ref="G25" si="71">D25/F25</f>
+        <v>14.756164383561643</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" ref="H25" si="72">E25/F25</f>
+        <v>1.7205479452054795</v>
+      </c>
+      <c r="I25" s="3">
+        <f>B25-B24</f>
+        <v>5386</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53CECB-9172-4949-9D48-295936482B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -93,12 +99,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -147,10 +156,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$25</c:f>
+              <c:f>Tabelle1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -219,16 +228,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$25</c:f>
+              <c:f>Tabelle1!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -297,11 +309,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>294266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3288-4A42-9C38-9A0EF26B73FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -311,7 +331,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="84057088"/>
         <c:axId val="84062976"/>
@@ -352,7 +371,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -368,7 +386,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -382,7 +400,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -410,10 +427,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$25</c:f>
+              <c:f>Tabelle1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -482,16 +499,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$25</c:f>
+              <c:f>Tabelle1!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -560,11 +580,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>34616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EA4-4BBB-A710-E128EA2AE01C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -574,7 +602,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="85934848"/>
         <c:axId val="85936384"/>
@@ -615,7 +642,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -631,7 +657,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -660,7 +686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -688,10 +713,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$25</c:f>
+              <c:f>Tabelle1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -760,16 +785,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$25</c:f>
+              <c:f>Tabelle1!$G$3:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -835,11 +863,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>14.756164383561643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.493150684931507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-604D-4588-B0B6-011B8AA70EED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -860,10 +896,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$25</c:f>
+              <c:f>Tabelle1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -932,16 +968,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$25</c:f>
+              <c:f>Tabelle1!$H$3:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1007,11 +1046,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.7205479452054795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89726027397260277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-604D-4588-B0B6-011B8AA70EED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1021,7 +1068,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="85965824"/>
         <c:axId val="85971712"/>
@@ -1062,7 +1108,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1082,19 +1127,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1111,20 +1162,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1143,20 +1200,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagramm 10" title="Verbrauch pro Tag"/>
+        <xdr:cNvPr id="11" name="Diagramm 10" title="Verbrauch pro Tag">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1175,9 +1238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1215,9 +1278,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1250,9 +1313,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1285,9 +1365,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1460,20 +1557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>39114</v>
       </c>
@@ -1528,7 +1625,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40908</v>
       </c>
@@ -1559,12 +1656,12 @@
         <v>3.1482720178372352</v>
       </c>
       <c r="I4" s="3">
-        <f>D4/F4*365</f>
+        <f t="shared" ref="I4:I10" si="4">D4/F4*365</f>
         <v>10056.014492753624</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>41306</v>
       </c>
@@ -1575,32 +1672,32 @@
         <v>23948</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5" si="4">B5-B4</f>
+        <f t="shared" ref="D5" si="5">B5-B4</f>
         <v>13388</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5" si="5">C5-C4</f>
+        <f t="shared" ref="E5" si="6">C5-C4</f>
         <v>1723</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5" si="6">A5-A4</f>
+        <f t="shared" ref="F5" si="7">A5-A4</f>
         <v>398</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5" si="7">D5/F5</f>
+        <f t="shared" ref="G5" si="8">D5/F5</f>
         <v>33.638190954773869</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5" si="8">E5/F5</f>
+        <f t="shared" ref="H5" si="9">E5/F5</f>
         <v>4.3291457286432165</v>
       </c>
       <c r="I5" s="3">
-        <f>D5/F5*365</f>
+        <f t="shared" si="4"/>
         <v>12277.939698492462</v>
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>41671</v>
       </c>
@@ -1611,32 +1708,32 @@
         <v>25539</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6" si="9">B6-B5</f>
+        <f t="shared" ref="D6" si="10">B6-B5</f>
         <v>11385</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6" si="10">C6-C5</f>
+        <f t="shared" ref="E6" si="11">C6-C5</f>
         <v>1591</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6" si="11">A6-A5</f>
+        <f t="shared" ref="F6" si="12">A6-A5</f>
         <v>365</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6" si="12">D6/F6</f>
+        <f t="shared" ref="G6" si="13">D6/F6</f>
         <v>31.19178082191781</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6" si="13">E6/F6</f>
+        <f t="shared" ref="H6" si="14">E6/F6</f>
         <v>4.3589041095890408</v>
       </c>
       <c r="I6" s="3">
-        <f>D6/F6*365</f>
+        <f t="shared" si="4"/>
         <v>11385</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42036</v>
       </c>
@@ -1647,32 +1744,32 @@
         <v>27087</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="14">B7-B6</f>
+        <f t="shared" ref="D7" si="15">B7-B6</f>
         <v>9503</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7" si="15">C7-C6</f>
+        <f t="shared" ref="E7" si="16">C7-C6</f>
         <v>1548</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7" si="16">A7-A6</f>
+        <f t="shared" ref="F7" si="17">A7-A6</f>
         <v>365</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7" si="17">D7/F7</f>
+        <f t="shared" ref="G7" si="18">D7/F7</f>
         <v>26.035616438356165</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H7" si="18">E7/F7</f>
+        <f t="shared" ref="H7" si="19">E7/F7</f>
         <v>4.2410958904109588</v>
       </c>
       <c r="I7" s="3">
-        <f>D7/F7*365</f>
+        <f t="shared" si="4"/>
         <v>9503</v>
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42401</v>
       </c>
@@ -1683,32 +1780,32 @@
         <v>28612</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8" si="19">B8-B7</f>
+        <f t="shared" ref="D8" si="20">B8-B7</f>
         <v>9735</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" si="20">C8-C7</f>
+        <f t="shared" ref="E8" si="21">C8-C7</f>
         <v>1525</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="21">A8-A7</f>
+        <f t="shared" ref="F8" si="22">A8-A7</f>
         <v>365</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8" si="22">D8/F8</f>
+        <f t="shared" ref="G8" si="23">D8/F8</f>
         <v>26.671232876712327</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8" si="23">E8/F8</f>
+        <f t="shared" ref="H8" si="24">E8/F8</f>
         <v>4.1780821917808222</v>
       </c>
       <c r="I8" s="3">
-        <f>D8/F8*365</f>
+        <f t="shared" si="4"/>
         <v>9735</v>
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42767</v>
       </c>
@@ -1719,32 +1816,32 @@
         <v>30004</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9" si="24">B9-B8</f>
+        <f t="shared" ref="D9" si="25">B9-B8</f>
         <v>10550</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="25">C9-C8</f>
+        <f t="shared" ref="E9" si="26">C9-C8</f>
         <v>1392</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="26">A9-A8</f>
+        <f t="shared" ref="F9" si="27">A9-A8</f>
         <v>366</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9" si="27">D9/F9</f>
+        <f t="shared" ref="G9" si="28">D9/F9</f>
         <v>28.825136612021858</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9" si="28">E9/F9</f>
+        <f t="shared" ref="H9" si="29">E9/F9</f>
         <v>3.8032786885245899</v>
       </c>
       <c r="I9" s="3">
-        <f>D9/F9*365</f>
+        <f t="shared" si="4"/>
         <v>10521.174863387978</v>
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43191</v>
       </c>
@@ -1755,32 +1852,32 @@
         <v>31874</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10" si="29">B10-B9</f>
+        <f t="shared" ref="D10" si="30">B10-B9</f>
         <v>14666</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10" si="30">C10-C9</f>
+        <f t="shared" ref="E10" si="31">C10-C9</f>
         <v>1870</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10" si="31">A10-A9</f>
+        <f t="shared" ref="F10" si="32">A10-A9</f>
         <v>424</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10" si="32">D10/F10</f>
+        <f t="shared" ref="G10" si="33">D10/F10</f>
         <v>34.589622641509436</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10" si="33">E10/F10</f>
+        <f t="shared" ref="H10" si="34">E10/F10</f>
         <v>4.4103773584905657</v>
       </c>
       <c r="I10" s="3">
-        <f>D10/F10*365</f>
+        <f t="shared" si="4"/>
         <v>12625.212264150945</v>
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43340</v>
       </c>
@@ -1791,29 +1888,29 @@
         <v>32356</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="34">B11-B10</f>
+        <f t="shared" ref="D11" si="35">B11-B10</f>
         <v>214</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="35">C11-C10</f>
+        <f t="shared" ref="E11" si="36">C11-C10</f>
         <v>482</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="36">A11-A10</f>
+        <f t="shared" ref="F11" si="37">A11-A10</f>
         <v>149</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11" si="37">D11/F11</f>
+        <f t="shared" ref="G11" si="38">D11/F11</f>
         <v>1.436241610738255</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11" si="38">E11/F11</f>
+        <f t="shared" ref="H11" si="39">E11/F11</f>
         <v>3.2348993288590604</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43383</v>
       </c>
@@ -1824,29 +1921,29 @@
         <v>32507</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D20" si="39">B12-B11</f>
+        <f t="shared" ref="D12:D20" si="40">B12-B11</f>
         <v>563</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E19" si="40">C12-C11</f>
+        <f t="shared" ref="E12:E19" si="41">C12-C11</f>
         <v>151</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F19" si="41">A12-A11</f>
+        <f t="shared" ref="F12:F19" si="42">A12-A11</f>
         <v>43</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:G19" si="42">D12/F12</f>
+        <f t="shared" ref="G12:G19" si="43">D12/F12</f>
         <v>13.093023255813954</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H19" si="43">E12/F12</f>
+        <f t="shared" ref="H12:H19" si="44">E12/F12</f>
         <v>3.5116279069767442</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43403</v>
       </c>
@@ -1857,29 +1954,29 @@
         <v>32565</v>
       </c>
       <c r="D13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>768</v>
       </c>
       <c r="E13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>58</v>
       </c>
       <c r="F13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>38.4</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.9</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43457</v>
       </c>
@@ -1890,29 +1987,29 @@
         <v>32708</v>
       </c>
       <c r="D14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2592</v>
       </c>
       <c r="E14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>143</v>
       </c>
       <c r="F14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>54</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>48</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.6481481481481484</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43469</v>
       </c>
@@ -1923,29 +2020,29 @@
         <v>32732</v>
       </c>
       <c r="D15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>616</v>
       </c>
       <c r="E15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>24</v>
       </c>
       <c r="F15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>51.333333333333336</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43494</v>
       </c>
@@ -1956,23 +2053,23 @@
         <v>32796</v>
       </c>
       <c r="D16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1428</v>
       </c>
       <c r="E16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>64</v>
       </c>
       <c r="F16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>57.12</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.56</v>
       </c>
       <c r="I16" s="3">
@@ -1981,7 +2078,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43542</v>
       </c>
@@ -1992,29 +2089,29 @@
         <v>32948</v>
       </c>
       <c r="D17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2651</v>
       </c>
       <c r="E17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>152</v>
       </c>
       <c r="F17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>48</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>55.229166666666664</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43549</v>
       </c>
@@ -2025,29 +2122,29 @@
         <v>32961</v>
       </c>
       <c r="D18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>377</v>
       </c>
       <c r="E18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="F18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>53.857142857142854</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1.8571428571428572</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43567</v>
       </c>
@@ -2058,29 +2155,29 @@
         <v>33008</v>
       </c>
       <c r="D19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>749</v>
       </c>
       <c r="E19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>47</v>
       </c>
       <c r="F19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>41.611111111111114</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.6111111111111112</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43591</v>
       </c>
@@ -2091,29 +2188,29 @@
         <v>33091</v>
       </c>
       <c r="D20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>622</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="44">C20-C19</f>
+        <f t="shared" ref="E20" si="45">C20-C19</f>
         <v>83</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="45">A20-A19</f>
+        <f t="shared" ref="F20" si="46">A20-A19</f>
         <v>24</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ref="G20" si="46">D20/F20</f>
+        <f t="shared" ref="G20" si="47">D20/F20</f>
         <v>25.916666666666668</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20" si="47">E20/F20</f>
+        <f t="shared" ref="H20" si="48">E20/F20</f>
         <v>3.4583333333333335</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43661</v>
       </c>
@@ -2124,29 +2221,29 @@
         <v>33353</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21" si="48">B21-B20</f>
+        <f t="shared" ref="D21" si="49">B21-B20</f>
         <v>894</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="49">C21-C20</f>
+        <f t="shared" ref="E21" si="50">C21-C20</f>
         <v>262</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="50">A21-A20</f>
+        <f t="shared" ref="F21" si="51">A21-A20</f>
         <v>70</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" ref="G21" si="51">D21/F21</f>
+        <f t="shared" ref="G21" si="52">D21/F21</f>
         <v>12.771428571428572</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ref="H21" si="52">E21/F21</f>
+        <f t="shared" ref="H21" si="53">E21/F21</f>
         <v>3.7428571428571429</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43728</v>
       </c>
@@ -2157,29 +2254,29 @@
         <v>33553</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22" si="53">B22-B21</f>
+        <f t="shared" ref="D22" si="54">B22-B21</f>
         <v>636</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="54">C22-C21</f>
+        <f t="shared" ref="E22" si="55">C22-C21</f>
         <v>200</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22" si="55">A22-A21</f>
+        <f t="shared" ref="F22" si="56">A22-A21</f>
         <v>67</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22" si="56">D22/F22</f>
+        <f t="shared" ref="G22" si="57">D22/F22</f>
         <v>9.4925373134328357</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ref="H22" si="57">E22/F22</f>
+        <f t="shared" ref="H22" si="58">E22/F22</f>
         <v>2.9850746268656718</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43775</v>
       </c>
@@ -2190,29 +2287,29 @@
         <v>33721</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23" si="58">B23-B22</f>
+        <f t="shared" ref="D23" si="59">B23-B22</f>
         <v>1490</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="59">C23-C22</f>
+        <f t="shared" ref="E23" si="60">C23-C22</f>
         <v>168</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23" si="60">A23-A22</f>
+        <f t="shared" ref="F23" si="61">A23-A22</f>
         <v>47</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23" si="61">D23/F23</f>
+        <f t="shared" ref="G23" si="62">D23/F23</f>
         <v>31.702127659574469</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23" si="62">E23/F23</f>
+        <f t="shared" ref="H23" si="63">E23/F23</f>
         <v>3.5744680851063828</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43874</v>
       </c>
@@ -2223,23 +2320,23 @@
         <v>33988</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="63">B24-B23</f>
+        <f t="shared" ref="D24" si="64">B24-B23</f>
         <v>4627</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="64">C24-C23</f>
+        <f t="shared" ref="E24" si="65">C24-C23</f>
         <v>267</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="65">A24-A23</f>
+        <f t="shared" ref="F24" si="66">A24-A23</f>
         <v>99</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" ref="G24" si="66">D24/F24</f>
+        <f t="shared" ref="G24" si="67">D24/F24</f>
         <v>46.737373737373737</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24" si="67">E24/F24</f>
+        <f t="shared" ref="H24" si="68">E24/F24</f>
         <v>2.6969696969696968</v>
       </c>
       <c r="I24" s="3">
@@ -2248,7 +2345,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
@@ -2259,23 +2356,23 @@
         <v>34616</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="68">B25-B24</f>
+        <f t="shared" ref="D25:D26" si="69">B25-B24</f>
         <v>5386</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="69">C25-C24</f>
+        <f t="shared" ref="E25:E26" si="70">C25-C24</f>
         <v>628</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="70">A25-A24</f>
+        <f t="shared" ref="F25:F26" si="71">A25-A24</f>
         <v>365</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ref="G25" si="71">D25/F25</f>
+        <f t="shared" ref="G25:G26" si="72">D25/F25</f>
         <v>14.756164383561643</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25" si="72">E25/F25</f>
+        <f t="shared" ref="H25:H26" si="73">E25/F25</f>
         <v>1.7205479452054795</v>
       </c>
       <c r="I25" s="3">
@@ -2283,6 +2380,41 @@
         <v>5386</v>
       </c>
       <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B26">
+        <v>297404</v>
+      </c>
+      <c r="C26">
+        <v>34747</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="69"/>
+        <v>3138</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="70"/>
+        <v>131</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="71"/>
+        <v>146</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="72"/>
+        <v>21.493150684931507</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="73"/>
+        <v>0.89726027397260277</v>
+      </c>
+      <c r="I26" s="3">
+        <f>B26-B25</f>
+        <v>3138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2292,24 +2424,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53CECB-9172-4949-9D48-295936482B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4166B55-2CA4-4934-A07B-DF0DDA3E727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,23 +2356,23 @@
         <v>34616</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D26" si="69">B25-B24</f>
+        <f t="shared" ref="D25:D27" si="69">B25-B24</f>
         <v>5386</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E26" si="70">C25-C24</f>
+        <f t="shared" ref="E25:E27" si="70">C25-C24</f>
         <v>628</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F26" si="71">A25-A24</f>
+        <f t="shared" ref="F25:G27" si="71">A25-A24</f>
         <v>365</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ref="G25:G26" si="72">D25/F25</f>
+        <f t="shared" ref="G25:G27" si="72">D25/F25</f>
         <v>14.756164383561643</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25:H26" si="73">E25/F25</f>
+        <f t="shared" ref="H25:H27" si="73">E25/F25</f>
         <v>1.7205479452054795</v>
       </c>
       <c r="I25" s="3">
@@ -2414,6 +2414,41 @@
       <c r="I26" s="3">
         <f>B26-B25</f>
         <v>3138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B27">
+        <v>297529</v>
+      </c>
+      <c r="C27">
+        <v>34817</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="69"/>
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="70"/>
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="71"/>
+        <v>55</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="72"/>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="73"/>
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="I27" s="3">
+        <f>B27-B26</f>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4166B55-2CA4-4934-A07B-DF0DDA3E727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A11AC79-973D-4F91-AF53-8EB4743C1D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,15 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -156,10 +165,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$26</c:f>
+              <c:f>Tabelle1!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -231,16 +240,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$26</c:f>
+              <c:f>Tabelle1!$B$3:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -312,6 +327,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>297404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>297529</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>298034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,10 +448,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$26</c:f>
+              <c:f>Tabelle1!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -502,16 +523,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$26</c:f>
+              <c:f>Tabelle1!$C$3:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -583,6 +610,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>34747</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34817</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,10 +746,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$26</c:f>
+              <c:f>Tabelle1!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -788,16 +821,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$26</c:f>
+              <c:f>Tabelle1!$G$3:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -866,6 +905,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>21.493150684931507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.74468085106383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,10 +941,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$26</c:f>
+              <c:f>Tabelle1!$A$3:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -971,16 +1016,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$26</c:f>
+              <c:f>Tabelle1!$H$3:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1049,6 +1100,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.89726027397260277</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6595744680851063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,15 +1184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
+      <xdr:colOff>89535</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>97154</xdr:rowOff>
+      <xdr:rowOff>158114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>651510</xdr:colOff>
+      <xdr:colOff>491490</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>65721</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1558,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D28" sqref="D28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2364,7 +2421,7 @@
         <v>628</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:G27" si="71">A25-A24</f>
+        <f t="shared" ref="F25:F27" si="71">A25-A24</f>
         <v>365</v>
       </c>
       <c r="G25" s="3">
@@ -2449,6 +2506,41 @@
       <c r="I27" s="3">
         <f>B27-B26</f>
         <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B28">
+        <v>298034</v>
+      </c>
+      <c r="C28">
+        <v>34895</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="74">B28-B27</f>
+        <v>505</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="75">C28-C27</f>
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="76">A28-A27</f>
+        <v>47</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ref="G28" si="77">D28/F28</f>
+        <v>10.74468085106383</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ref="H28" si="78">E28/F28</f>
+        <v>1.6595744680851063</v>
+      </c>
+      <c r="I28" s="3">
+        <f>B28-B27</f>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A11AC79-973D-4F91-AF53-8EB4743C1D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132225EE-D7F2-479C-8479-0CFE29D7A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,11 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -55,6 +46,9 @@
   </si>
   <si>
     <t>Verbr pro Jahr</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2541,6 +2535,11 @@
       <c r="I28" s="3">
         <f>B28-B27</f>
         <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132225EE-D7F2-479C-8479-0CFE29D7A520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD093EC-9F87-4C6E-AE97-ED8878727AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,21 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -46,9 +56,6 @@
   </si>
   <si>
     <t>Verbr pro Jahr</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -136,7 +143,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7940712502195637E-2"/>
+          <c:y val="0.13346818147216932"/>
+          <c:w val="0.64262776470904637"/>
+          <c:h val="0.75994233422708735"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -159,10 +176,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$28</c:f>
+              <c:f>Tabelle1!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -240,16 +257,34 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$28</c:f>
+              <c:f>Tabelle1!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -327,6 +362,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>298034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300505</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302213</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>302822</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>302875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>303235</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>303313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,10 +495,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$28</c:f>
+              <c:f>Tabelle1!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -523,16 +576,34 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$28</c:f>
+              <c:f>Tabelle1!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -610,6 +681,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>34895</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34959</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,10 +829,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$28</c:f>
+              <c:f>Tabelle1!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -821,16 +910,34 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$28</c:f>
+              <c:f>Tabelle1!$G$3:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -905,6 +1012,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>10.74468085106383</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.990291262135923</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.397260273972602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.65625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.6595744680851068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0909090909090908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,10 +1060,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$28</c:f>
+              <c:f>Tabelle1!$A$3:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -1016,16 +1141,34 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$28</c:f>
+              <c:f>Tabelle1!$H$3:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1100,6 +1243,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.6595744680851063</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62135922330097082</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80821917808219179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2017543859649122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90909090909090906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,16 +1374,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>177165</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>27622</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1251,16 +1412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>649604</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1609,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2538,8 +2699,213 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>8</v>
+      <c r="A29" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B29">
+        <v>300505</v>
+      </c>
+      <c r="C29">
+        <v>34959</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D34" si="79">B29-B28</f>
+        <v>2471</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E34" si="80">C29-C28</f>
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F34" si="81">A29-A28</f>
+        <v>103</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ref="G29:G34" si="82">D29/F29</f>
+        <v>23.990291262135923</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29:H34" si="83">E29/F29</f>
+        <v>0.62135922330097082</v>
+      </c>
+      <c r="I29" s="3">
+        <f>B29-B28</f>
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B30">
+        <v>302213</v>
+      </c>
+      <c r="C30">
+        <v>35018</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="79"/>
+        <v>1708</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="80"/>
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="81"/>
+        <v>73</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="82"/>
+        <v>23.397260273972602</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="83"/>
+        <v>0.80821917808219179</v>
+      </c>
+      <c r="I30" s="3">
+        <f>B30-B29</f>
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B31">
+        <v>302822</v>
+      </c>
+      <c r="C31">
+        <v>35155</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="79"/>
+        <v>609</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="80"/>
+        <v>137</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="81"/>
+        <v>114</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="82"/>
+        <v>5.3421052631578947</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="83"/>
+        <v>1.2017543859649122</v>
+      </c>
+      <c r="I31" s="3">
+        <f>B31-B30</f>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B32">
+        <v>302875</v>
+      </c>
+      <c r="C32">
+        <v>35199</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="79"/>
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="80"/>
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="81"/>
+        <v>32</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="82"/>
+        <v>1.65625</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="83"/>
+        <v>1.375</v>
+      </c>
+      <c r="I32" s="3">
+        <f>B32-B31</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B33">
+        <v>303235</v>
+      </c>
+      <c r="C33">
+        <v>35293</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="79"/>
+        <v>360</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="80"/>
+        <v>94</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="81"/>
+        <v>47</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="82"/>
+        <v>7.6595744680851068</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="3">
+        <f>B33-B32</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B34">
+        <v>303313</v>
+      </c>
+      <c r="C34">
+        <v>35303</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="79"/>
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="80"/>
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="81"/>
+        <v>11</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="82"/>
+        <v>7.0909090909090908</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="83"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I34" s="3">
+        <f>B34-B33</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD093EC-9F87-4C6E-AE97-ED8878727AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99BF9A9-F8E1-45D3-8B44-405FAB7C83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,6 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -176,10 +166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$34</c:f>
+              <c:f>Tabelle1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -275,16 +265,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$34</c:f>
+              <c:f>Tabelle1!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -380,6 +373,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>303313</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>305461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,10 +491,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$34</c:f>
+              <c:f>Tabelle1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -594,16 +590,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$34</c:f>
+              <c:f>Tabelle1!$C$3:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -699,6 +698,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>35303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,10 +831,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$34</c:f>
+              <c:f>Tabelle1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -928,16 +930,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$34</c:f>
+              <c:f>Tabelle1!$G$3:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -1030,6 +1035,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.40909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,10 +1068,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$34</c:f>
+              <c:f>Tabelle1!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -1159,16 +1167,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$34</c:f>
+              <c:f>Tabelle1!$H$3:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1261,6 +1272,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0681818181818181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,16 +1352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>65721</xdr:rowOff>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1374,16 +1388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1770,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D35" sqref="D35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2588,7 +2602,7 @@
         <v>1.7205479452054795</v>
       </c>
       <c r="I25" s="3">
-        <f>B25-B24</f>
+        <f t="shared" ref="I25:I34" si="74">B25-B24</f>
         <v>5386</v>
       </c>
       <c r="J25" s="3"/>
@@ -2624,7 +2638,7 @@
         <v>0.89726027397260277</v>
       </c>
       <c r="I26" s="3">
-        <f>B26-B25</f>
+        <f t="shared" si="74"/>
         <v>3138</v>
       </c>
     </row>
@@ -2659,7 +2673,7 @@
         <v>1.2727272727272727</v>
       </c>
       <c r="I27" s="3">
-        <f>B27-B26</f>
+        <f t="shared" si="74"/>
         <v>125</v>
       </c>
     </row>
@@ -2674,27 +2688,27 @@
         <v>34895</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28" si="74">B28-B27</f>
+        <f t="shared" ref="D28" si="75">B28-B27</f>
         <v>505</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28" si="75">C28-C27</f>
+        <f t="shared" ref="E28" si="76">C28-C27</f>
         <v>78</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="76">A28-A27</f>
+        <f t="shared" ref="F28" si="77">A28-A27</f>
         <v>47</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28" si="77">D28/F28</f>
+        <f t="shared" ref="G28" si="78">D28/F28</f>
         <v>10.74468085106383</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28" si="78">E28/F28</f>
+        <f t="shared" ref="H28" si="79">E28/F28</f>
         <v>1.6595744680851063</v>
       </c>
       <c r="I28" s="3">
-        <f>B28-B27</f>
+        <f t="shared" si="74"/>
         <v>505</v>
       </c>
     </row>
@@ -2709,27 +2723,27 @@
         <v>34959</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D34" si="79">B29-B28</f>
+        <f t="shared" ref="D29:D34" si="80">B29-B28</f>
         <v>2471</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E34" si="80">C29-C28</f>
+        <f t="shared" ref="E29:E34" si="81">C29-C28</f>
         <v>64</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F34" si="81">A29-A28</f>
+        <f t="shared" ref="F29:F34" si="82">A29-A28</f>
         <v>103</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ref="G29:G34" si="82">D29/F29</f>
+        <f t="shared" ref="G29:G34" si="83">D29/F29</f>
         <v>23.990291262135923</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:H34" si="83">E29/F29</f>
+        <f t="shared" ref="H29:H34" si="84">E29/F29</f>
         <v>0.62135922330097082</v>
       </c>
       <c r="I29" s="3">
-        <f>B29-B28</f>
+        <f t="shared" si="74"/>
         <v>2471</v>
       </c>
     </row>
@@ -2744,27 +2758,27 @@
         <v>35018</v>
       </c>
       <c r="D30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1708</v>
       </c>
       <c r="E30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>59</v>
       </c>
       <c r="F30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>73</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>23.397260273972602</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.80821917808219179</v>
       </c>
       <c r="I30" s="3">
-        <f>B30-B29</f>
+        <f t="shared" si="74"/>
         <v>1708</v>
       </c>
     </row>
@@ -2779,27 +2793,27 @@
         <v>35155</v>
       </c>
       <c r="D31">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>609</v>
       </c>
       <c r="E31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>137</v>
       </c>
       <c r="F31">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>114</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>5.3421052631578947</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.2017543859649122</v>
       </c>
       <c r="I31" s="3">
-        <f>B31-B30</f>
+        <f t="shared" si="74"/>
         <v>609</v>
       </c>
     </row>
@@ -2814,27 +2828,27 @@
         <v>35199</v>
       </c>
       <c r="D32">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>53</v>
       </c>
       <c r="E32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>44</v>
       </c>
       <c r="F32">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>32</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.65625</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.375</v>
       </c>
       <c r="I32" s="3">
-        <f>B32-B31</f>
+        <f t="shared" si="74"/>
         <v>53</v>
       </c>
     </row>
@@ -2849,27 +2863,27 @@
         <v>35293</v>
       </c>
       <c r="D33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>360</v>
       </c>
       <c r="E33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>94</v>
       </c>
       <c r="F33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>47</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>7.6595744680851068</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2</v>
       </c>
       <c r="I33" s="3">
-        <f>B33-B32</f>
+        <f t="shared" si="74"/>
         <v>360</v>
       </c>
     </row>
@@ -2884,28 +2898,63 @@
         <v>35303</v>
       </c>
       <c r="D34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>78</v>
       </c>
       <c r="E34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10</v>
       </c>
       <c r="F34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>11</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>7.0909090909090908</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="I34" s="3">
-        <f>B34-B33</f>
+        <f t="shared" si="74"/>
         <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B35">
+        <v>305461</v>
+      </c>
+      <c r="C35">
+        <v>35397</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="85">B35-B34</f>
+        <v>2148</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="86">C35-C34</f>
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="87">A35-A34</f>
+        <v>88</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ref="G35" si="88">D35/F35</f>
+        <v>24.40909090909091</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35" si="89">E35/F35</f>
+        <v>1.0681818181818181</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" ref="I35" si="90">B35-B34</f>
+        <v>2148</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99BF9A9-F8E1-45D3-8B44-405FAB7C83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA5F35-AF77-402C-801C-806720C56509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$35</c:f>
+              <c:f>Tabelle1!$A$3:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -268,16 +268,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$35</c:f>
+              <c:f>Tabelle1!$B$3:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -376,6 +379,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>305461</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>307283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,10 +497,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$35</c:f>
+              <c:f>Tabelle1!$A$3:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -593,16 +599,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$35</c:f>
+              <c:f>Tabelle1!$C$3:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -701,6 +710,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>35397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,10 +843,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$35</c:f>
+              <c:f>Tabelle1!$A$3:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -933,16 +945,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$35</c:f>
+              <c:f>Tabelle1!$G$3:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -1038,6 +1053,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>24.40909090909091</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.493827160493826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,10 +1086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$35</c:f>
+              <c:f>Tabelle1!$A$3:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -1170,16 +1188,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$35</c:f>
+              <c:f>Tabelle1!$H$3:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1275,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.0681818181818181</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8518518518518519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,15 +1413,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>55245</xdr:colOff>
+      <xdr:colOff>184785</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>88582</xdr:rowOff>
+      <xdr:rowOff>35242</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1427,15 +1451,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>649604</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>49529</xdr:rowOff>
+      <xdr:colOff>398144</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1784,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:I35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2955,6 +2979,41 @@
       <c r="I35" s="3">
         <f t="shared" ref="I35" si="90">B35-B34</f>
         <v>2148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B36">
+        <v>307283</v>
+      </c>
+      <c r="C36">
+        <v>35547</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36" si="91">B36-B35</f>
+        <v>1822</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="92">C36-C35</f>
+        <v>150</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="93">A36-A35</f>
+        <v>81</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" ref="G36" si="94">D36/F36</f>
+        <v>22.493827160493826</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ref="H36" si="95">E36/F36</f>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" ref="I36" si="96">B36-B35</f>
+        <v>1822</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA5F35-AF77-402C-801C-806720C56509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A05035-658F-4AB2-9B5B-A84829E1ECF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$36</c:f>
+              <c:f>Tabelle1!$A$3:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -271,16 +271,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$36</c:f>
+              <c:f>Tabelle1!$B$3:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -382,6 +385,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>307283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>307868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,10 +503,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$36</c:f>
+              <c:f>Tabelle1!$A$3:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -602,16 +608,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$36</c:f>
+              <c:f>Tabelle1!$C$3:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -713,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>35547</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,10 +855,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$36</c:f>
+              <c:f>Tabelle1!$A$3:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -948,16 +960,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$36</c:f>
+              <c:f>Tabelle1!$G$3:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -1056,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>22.493827160493826</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3656716417910451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,10 +1104,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$36</c:f>
+              <c:f>Tabelle1!$A$3:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -1191,16 +1209,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$36</c:f>
+              <c:f>Tabelle1!$H$3:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1299,6 +1320,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.8518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5970149253731343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,16 +1436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>35242</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>718185</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1451,15 +1475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91439</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>739139</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>398144</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>64769</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1488,9 +1512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1528,9 +1552,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1563,26 +1587,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1615,26 +1622,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1808,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3014,6 +3004,41 @@
       <c r="I36" s="3">
         <f t="shared" ref="I36" si="96">B36-B35</f>
         <v>1822</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B37">
+        <v>307868</v>
+      </c>
+      <c r="C37">
+        <v>35895</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="97">B37-B36</f>
+        <v>585</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="98">C37-C36</f>
+        <v>348</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="99">A37-A36</f>
+        <v>134</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" ref="G37" si="100">D37/F37</f>
+        <v>4.3656716417910451</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" ref="H37" si="101">E37/F37</f>
+        <v>2.5970149253731343</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" ref="I37" si="102">B37-B36</f>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/Strom.xlsx
+++ b/Strom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A05035-658F-4AB2-9B5B-A84829E1ECF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CE7277-AE4A-41FA-986E-291E6FAFC04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$37</c:f>
+              <c:f>Tabelle1!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -274,16 +274,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45238</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$37</c:f>
+              <c:f>Tabelle1!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>152000</c:v>
                 </c:pt>
@@ -388,6 +397,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>307868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>308273</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>308747</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>309320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,10 +521,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$37</c:f>
+              <c:f>Tabelle1!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -611,16 +629,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45238</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$37</c:f>
+              <c:f>Tabelle1!$C$3:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>16577</c:v>
                 </c:pt>
@@ -725,6 +752,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35895</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36067</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,10 +891,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$37</c:f>
+              <c:f>Tabelle1!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -963,16 +999,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45238</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$37</c:f>
+              <c:f>Tabelle1!$G$3:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>27.55072463768116</c:v>
                 </c:pt>
@@ -1074,6 +1119,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.3656716417910451</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9558823529411766</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,10 +1158,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$37</c:f>
+              <c:f>Tabelle1!$A$3:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39114</c:v>
                 </c:pt>
@@ -1212,16 +1266,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45238</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$37</c:f>
+              <c:f>Tabelle1!$H$3:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
                   <c:v>3.1482720178372352</c:v>
                 </c:pt>
@@ -1323,6 +1386,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.5970149253731343</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,16 +1508,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>718185</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27622</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>126682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1798,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3039,6 +3111,111 @@
       <c r="I37" s="3">
         <f t="shared" ref="I37" si="102">B37-B36</f>
         <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B38">
+        <v>308273</v>
+      </c>
+      <c r="C38">
+        <v>36005</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D40" si="103">B38-B37</f>
+        <v>405</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E40" si="104">C38-C37</f>
+        <v>110</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="105">A38-A37</f>
+        <v>68</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" ref="G38:G40" si="106">D38/F38</f>
+        <v>5.9558823529411766</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38:H40" si="107">E38/F38</f>
+        <v>1.6176470588235294</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38:I40" si="108">B38-B37</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B39">
+        <v>308747</v>
+      </c>
+      <c r="C39">
+        <v>36067</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="103"/>
+        <v>474</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="104"/>
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="105"/>
+        <v>25</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="106"/>
+        <v>18.96</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="107"/>
+        <v>2.48</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="108"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B40">
+        <v>309320</v>
+      </c>
+      <c r="C40">
+        <v>36109</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="103"/>
+        <v>573</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="104"/>
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="105"/>
+        <v>15</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="106"/>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="107"/>
+        <v>2.8</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="108"/>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
